--- a/DATA_goal/Junction_Flooding_367.xlsx
+++ b/DATA_goal/Junction_Flooding_367.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,34 +759,34 @@
         <v>40750.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
@@ -816,46 +816,46 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="AA3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AD3" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>0.08</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.01</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.89</v>
+        <v>78.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.45</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="AD4" s="4" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.71</v>
+        <v>37.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.08</v>
+        <v>30.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.91</v>
+        <v>49.11</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.35</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.96</v>
+        <v>19.55</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.9</v>
+        <v>198.95</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.77</v>
+        <v>37.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.66</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.56</v>
+        <v>25.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.66</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.43</v>
+        <v>44.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_367.xlsx
+++ b/DATA_goal/Junction_Flooding_367.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.00694444445</v>
+        <v>45048.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.01388888889</v>
+        <v>45048.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.57</v>
+        <v>16.071</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.25</v>
+        <v>11.926</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.641</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.14</v>
+        <v>35.495</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>28.23</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>12.224</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.71</v>
+        <v>46.213</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.13</v>
+        <v>19.724</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.06</v>
+        <v>8.73</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.98</v>
+        <v>12.285</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>14.446</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>15.013</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>4.398</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.09</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.87</v>
+        <v>17.91</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.08</v>
+        <v>11.141</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>1.142</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.665</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>187.236</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.12</v>
+        <v>35.696</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.68</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.14</v>
+        <v>23.585</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.11</v>
+        <v>12.612</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>1.782</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.28</v>
+        <v>24.013</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.15</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.02</v>
+        <v>9.391</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.06</v>
+        <v>11.004</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>14.978</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.07</v>
+        <v>42.418</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.02</v>
+        <v>6.506</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.08</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.02083333334</v>
+        <v>45048.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.91</v>
+        <v>24.313</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.4</v>
+        <v>18.179</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.523</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.01</v>
+        <v>53.289</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.54</v>
+        <v>43.324</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.75</v>
+        <v>18.807</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.2</v>
+        <v>73.226</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>29.617</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.71</v>
+        <v>13.274</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.25</v>
+        <v>19.222</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.97</v>
+        <v>21.544</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.4</v>
+        <v>22.593</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.7</v>
+        <v>6.389</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.43</v>
+        <v>19.174</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>27.174</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.5</v>
+        <v>16.275</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.891</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.91</v>
+        <v>284.54</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.45</v>
+        <v>53.607</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.43</v>
+        <v>17.698</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.53</v>
+        <v>35.912</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.33</v>
+        <v>18.971</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.74</v>
+        <v>2.562</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>36.579</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.53</v>
+        <v>15.633</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.84</v>
+        <v>13.892</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.57</v>
+        <v>16.323</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.92</v>
+        <v>22.48</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.84</v>
+        <v>66.821</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.82</v>
+        <v>9.927</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.27</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.02777777778</v>
+        <v>45048.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.81</v>
+        <v>6.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.01</v>
+        <v>4.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.09</v>
+        <v>14.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.83</v>
+        <v>11.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.7</v>
+        <v>4.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.11</v>
+        <v>26.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.66</v>
+        <v>8.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.35</v>
+        <v>4.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.84</v>
+        <v>6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.8</v>
+        <v>6.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.27</v>
+        <v>1.89</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.37</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.55</v>
+        <v>7.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.08</v>
+        <v>4.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.95</v>
+        <v>72.83</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.74</v>
+        <v>14.98</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.66</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.63</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.28</v>
+        <v>5.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.77</v>
+        <v>0.72</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.66</v>
+        <v>12.59</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.99</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>3.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.26</v>
+        <v>4.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.13</v>
+        <v>6.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.34</v>
+        <v>24.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7</v>
+        <v>2.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_367.xlsx
+++ b/DATA_goal/Junction_Flooding_367.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,9 +451,9 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -463,13 +463,13 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45048.50694444445</v>
+        <v>40750.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.173</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.534</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.853</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.581</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.857</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.617</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.037</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.575</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.738</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.004</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.497</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.644</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.821</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.519</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.989000000000001</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.075</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.196</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.759</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.045</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.658</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.941</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.856</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.392</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.396</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.913</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.131</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.786</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.628</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.785</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.215</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.053</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.621</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.676</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45048.51388888889</v>
+        <v>40750.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.071</v>
+        <v>1.568</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.926</v>
+        <v>0.253</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.641</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.495</v>
+        <v>0.141</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.23</v>
+        <v>0.066</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.224</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>46.213</v>
+        <v>2.706</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.724</v>
+        <v>0.132</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.73</v>
+        <v>0.064</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.285</v>
+        <v>0.979</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.446</v>
+        <v>0.005</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.013</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.398</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.783</v>
+        <v>0.09</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.91</v>
+        <v>0.873</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.141</v>
+        <v>0.078</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.142</v>
+        <v>0.083</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.665</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>187.236</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.696</v>
+        <v>1.119</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.799</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.585</v>
+        <v>1.141</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.612</v>
+        <v>0.115</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.782</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.013</v>
+        <v>1.284</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.422</v>
+        <v>0.152</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.391</v>
+        <v>0.017</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.004</v>
+        <v>0.06</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.978</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.023</v>
+        <v>1.083</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>42.418</v>
+        <v>2.073</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.506</v>
+        <v>0.015</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.751</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45048.52083333334</v>
+        <v>40750.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.313</v>
+        <v>7.906</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18.179</v>
+        <v>5.403</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.523</v>
+        <v>0.194</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>53.289</v>
+        <v>15.01</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>43.324</v>
+        <v>12.541</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.807</v>
+        <v>5.753</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>73.226</v>
+        <v>17.203</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.617</v>
+        <v>8.385999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.274</v>
+        <v>3.707</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.222</v>
+        <v>6.248</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.544</v>
+        <v>5.972</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.593</v>
+        <v>6.402</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.389</v>
+        <v>1.705</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>19.174</v>
+        <v>5.429</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>27.174</v>
+        <v>8.217000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>16.275</v>
+        <v>4.502</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.891</v>
+        <v>0.139</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.218</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>284.54</v>
+        <v>78.905</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>53.607</v>
+        <v>15.449</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.698</v>
+        <v>5.428</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.912</v>
+        <v>10.535</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.971</v>
+        <v>5.334</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.562</v>
+        <v>0.739</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>36.579</v>
+        <v>8.782999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.633</v>
+        <v>4.525</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.892</v>
+        <v>3.84</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.323</v>
+        <v>4.57</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.48</v>
+        <v>6.922</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.671</v>
+        <v>0.695</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>66.821</v>
+        <v>14.845</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.927</v>
+        <v>2.819</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>22.127</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45048.52777777778</v>
+        <v>40750.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.58</v>
+        <v>17.812</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.88</v>
+        <v>13.014</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.523</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.63</v>
+        <v>37.094</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.55</v>
+        <v>30.832</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.91</v>
+        <v>13.699</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.22</v>
+        <v>49.109</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.1</v>
+        <v>20.663</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.68</v>
+        <v>9.294</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.94</v>
+        <v>14.35</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6</v>
+        <v>14.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.19</v>
+        <v>15.796</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.89</v>
+        <v>4.273</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.26</v>
+        <v>13.369</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.4</v>
+        <v>19.551</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.66</v>
+        <v>11.079</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.213</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.525</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.83</v>
+        <v>198.952</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.98</v>
+        <v>37.737</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.86</v>
+        <v>12.66</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>25.635</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.18</v>
+        <v>13.276</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.72</v>
+        <v>1.774</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.59</v>
+        <v>24.66</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>10.993</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.91</v>
+        <v>9.529</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.57</v>
+        <v>11.257</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.17</v>
+        <v>16.129</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.42</v>
+        <v>44.341</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.64</v>
+        <v>7.001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.08</v>
+        <v>15.445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_367.xlsx
+++ b/DATA_goal/Junction_Flooding_367.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,9 +451,9 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -463,13 +463,13 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.00694444445</v>
+        <v>45048.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.01388888889</v>
+        <v>45048.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.568</v>
+        <v>16.071</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.253</v>
+        <v>11.926</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.641</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.141</v>
+        <v>35.495</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.066</v>
+        <v>28.23</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>12.224</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.706</v>
+        <v>46.213</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.132</v>
+        <v>19.724</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.064</v>
+        <v>8.73</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.979</v>
+        <v>12.285</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.005</v>
+        <v>14.446</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>15.013</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>4.398</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.09</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.873</v>
+        <v>17.91</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.078</v>
+        <v>11.141</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.083</v>
+        <v>1.142</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.665</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>187.236</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.119</v>
+        <v>35.696</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6820000000000001</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.141</v>
+        <v>23.585</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.115</v>
+        <v>12.612</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>1.782</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.284</v>
+        <v>24.013</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.152</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.017</v>
+        <v>9.391</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.06</v>
+        <v>11.004</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8110000000000001</v>
+        <v>14.978</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.083</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.073</v>
+        <v>42.418</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.015</v>
+        <v>6.506</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.081</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.02083333334</v>
+        <v>45048.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.906</v>
+        <v>24.313</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.403</v>
+        <v>18.179</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.194</v>
+        <v>1.523</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.01</v>
+        <v>53.289</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.541</v>
+        <v>43.324</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.753</v>
+        <v>18.807</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.203</v>
+        <v>73.226</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.385999999999999</v>
+        <v>29.617</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.707</v>
+        <v>13.274</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.248</v>
+        <v>19.222</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.972</v>
+        <v>21.544</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.402</v>
+        <v>22.593</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.705</v>
+        <v>6.389</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.429</v>
+        <v>19.174</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.217000000000001</v>
+        <v>27.174</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.502</v>
+        <v>16.275</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.139</v>
+        <v>0.891</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.218</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.905</v>
+        <v>284.54</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.449</v>
+        <v>53.607</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.428</v>
+        <v>17.698</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.535</v>
+        <v>35.912</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.334</v>
+        <v>18.971</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.739</v>
+        <v>2.562</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.782999999999999</v>
+        <v>36.579</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.525</v>
+        <v>15.633</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.84</v>
+        <v>13.892</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.57</v>
+        <v>16.323</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.922</v>
+        <v>22.48</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.695</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.845</v>
+        <v>66.821</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.819</v>
+        <v>9.927</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.27</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.02777777778</v>
+        <v>45048.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.812</v>
+        <v>6.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.014</v>
+        <v>4.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.523</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.094</v>
+        <v>14.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.832</v>
+        <v>11.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.699</v>
+        <v>4.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.109</v>
+        <v>26.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.663</v>
+        <v>8.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.294</v>
+        <v>3.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.35</v>
+        <v>4.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.84</v>
+        <v>6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.796</v>
+        <v>6.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.273</v>
+        <v>1.89</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.369</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.551</v>
+        <v>7.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.079</v>
+        <v>4.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.213</v>
+        <v>0.58</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.952</v>
+        <v>72.83</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.737</v>
+        <v>14.98</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.66</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.635</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.276</v>
+        <v>5.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.774</v>
+        <v>0.72</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.66</v>
+        <v>12.59</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.993</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.529</v>
+        <v>3.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.257</v>
+        <v>4.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.129</v>
+        <v>6.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.513</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.341</v>
+        <v>24.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.001</v>
+        <v>2.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.445</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>
